--- a/biology/Microbiologie/Caulobacter/Caulobacter.xlsx
+++ b/biology/Microbiologie/Caulobacter/Caulobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caulobacter est un genre de bactéries de la famille des Caulobacteraceae, dont il est le genre type.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (14 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (14 juin 2021) :
 Caulobacter daechungensis Jin et al., 2013
 Caulobacter flavus Sun et al., 2015
 Caulobacter fusiformis Poindexter, 1964
@@ -533,7 +547,7 @@
 Caulobacter vibrioides E
 Caulobacter vibrioides Henrici &amp; Johnson, 1935
 Caulobacter zeae
-Selon Catalogue of Life                                   (14 juin 2021)[2] :
+Selon Catalogue of Life                                   (14 juin 2021) :
 Caulobacter fusiformis Poindexter, 1964
 Caulobacter ginsengisoli Liu et al., 2011
 Caulobacter henricii Poindexter, 1964
@@ -541,7 +555,7 @@
 Caulobacter mirabilis Abraham et al., 2008
 Caulobacter segnis (Urakami et al., 1990) Abraham et al., 1999
 Caulobacter vibrioides Henrici &amp; Johnson, 1935
-Selon l'IRMNG  (14 juin 2021)[3] :
+Selon l'IRMNG  (14 juin 2021) :
 Caulobacter bacteroides Poindexter, 1964
 Caulobacter crescentus Poindexter, 1964
 Caulobacter fusiformis Poindexter, 1964
